--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2606770.14617625</v>
+        <v>2605940.488092144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613647</v>
+        <v>5851605.615330298</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259458</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6911074.961376791</v>
+        <v>6975568.270321103</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.9237459840447</v>
+        <v>401.5700704199259</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475954</v>
+        <v>55.04634263617451</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.2050748171591</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.1752199258844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>313.1366409859518</v>
+        <v>32.96208034643485</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092309</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1074,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>136.1769805884545</v>
+        <v>88.74530411691485</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>388.9364112694136</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>386.4457793822962</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.74588807992508</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.69825545411571</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>78.95479268882211</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905461</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263995</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>49.32919767251976</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>58.74455558297704</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V17" t="n">
         <v>316.8402373905461</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>91.50117460445635</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I19" t="n">
-        <v>7.414013280015205</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.6712979802672</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>221.4606772537522</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>49.20290154227468</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2532,16 +2532,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894046</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1517587144228</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567435</v>
+        <v>133.5141113966147</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419723</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>113.7044396708087</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.0290583729746</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894046</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554526</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729468</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>24.96203350001317</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679658</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894044</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554526</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.8373968265207</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729468</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733575</v>
+        <v>110.3513363269621</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997955998</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419722</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.001425361501695</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527161</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894044</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554526</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>149.657226324898</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567435</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733575</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>126.0264521962751</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955998</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>197.1183253629478</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>84.70950290368891</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894046</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>207.1006624208394</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>122.3301878937751</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>147.8413083466212</v>
       </c>
       <c r="X43" t="n">
-        <v>227.0672929610291</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>95.54331465629893</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.412113819451</v>
+        <v>72.6517987485345</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.287523132721</v>
+        <v>66.56761210220868</v>
       </c>
       <c r="D2" t="n">
-        <v>881.8235932257816</v>
+        <v>66.14408623567329</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>55.84427479297405</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>38.85426678706566</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="M2" t="n">
-        <v>1846.479361096332</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="N2" t="n">
-        <v>2047.697635790537</v>
+        <v>541.5402578923313</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>964.3492935560674</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1387.158329219804</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1486.112851961954</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1229.052360221465</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>879.2148055579453</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>879.2148055579453</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>879.2148055579453</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>478.2781325060354</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>340.66098205113</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>206.6659108000757</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>89.76875301946809</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>483.29728064101</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>483.29728064101</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>483.29728064101</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796119</v>
+        <v>906.1063163047462</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>906.1063163047462</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1328.915351968482</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>1678.759816652466</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1600.329326129404</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1440.987462316413</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1243.636651454631</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1029.925124447665</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>816.6919561839937</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>640.3659743228866</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>480.9640146867166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>558.8553848592519</v>
+        <v>114.1715127982404</v>
       </c>
       <c r="C4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="D4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="E4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="F4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>48.24893612551244</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>2002.981563155502</v>
+        <v>1377.173515221062</v>
       </c>
       <c r="T4" t="n">
-        <v>1763.432824132204</v>
+        <v>1137.624776197764</v>
       </c>
       <c r="U4" t="n">
-        <v>1480.634676678328</v>
+        <v>854.8266287438885</v>
       </c>
       <c r="V4" t="n">
-        <v>1206.74893161785</v>
+        <v>580.9408836834104</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6792671267244</v>
+        <v>301.8712191922848</v>
       </c>
       <c r="X4" t="n">
-        <v>689.3354049864079</v>
+        <v>301.8712191922848</v>
       </c>
       <c r="Y4" t="n">
-        <v>558.8553848592519</v>
+        <v>301.8712191922848</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>580.8635003818958</v>
       </c>
       <c r="D5" t="n">
-        <v>863.4445812219433</v>
+        <v>176.3995704749564</v>
       </c>
       <c r="E5" t="n">
-        <v>449.10436573884</v>
+        <v>166.0997590322571</v>
       </c>
       <c r="F5" t="n">
         <v>132.8047283792926</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>1726.536628995245</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>81.91922121582792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>639.6001036836846</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>639.6001036836846</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>639.6001036836846</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>639.6001036836846</v>
+        <v>1481.522260920235</v>
       </c>
       <c r="W7" t="n">
-        <v>639.6001036836846</v>
+        <v>1202.452596429109</v>
       </c>
       <c r="X7" t="n">
-        <v>639.6001036836846</v>
+        <v>1202.452596429109</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.6001036836846</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>2075.989319209691</v>
       </c>
       <c r="D8" t="n">
-        <v>863.4445812219433</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>449.10436573884</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>432.1143577329316</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4889,19 +4889,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>2058.694762117472</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5126,22 +5126,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1296.755812846556</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.7098132290405</v>
+        <v>582.8598596782838</v>
       </c>
       <c r="C13" t="n">
-        <v>392.4133516254418</v>
+        <v>441.5633980746852</v>
       </c>
       <c r="D13" t="n">
-        <v>262.7156177830367</v>
+        <v>441.5633980746852</v>
       </c>
       <c r="E13" t="n">
-        <v>230.6971779303946</v>
+        <v>310.4494937776896</v>
       </c>
       <c r="F13" t="n">
-        <v>230.6971779303946</v>
+        <v>310.4494937776896</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>172.9960135379179</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5199,22 +5199,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5235,16 +5235,16 @@
         <v>1393.521147976266</v>
       </c>
       <c r="V13" t="n">
-        <v>1149.432313750473</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="W13" t="n">
-        <v>900.1595600940318</v>
+        <v>1144.248394319825</v>
       </c>
       <c r="X13" t="n">
-        <v>691.6126087884001</v>
+        <v>935.7014430141936</v>
       </c>
       <c r="Y13" t="n">
-        <v>691.6126087884001</v>
+        <v>740.7626552376432</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5320,10 +5320,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5369,13 +5369,13 @@
         <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.950983437843</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.950983437843</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.8759098929697</v>
+        <v>548.5228536411037</v>
       </c>
       <c r="C16" t="n">
-        <v>392.579448289371</v>
+        <v>407.2263920375051</v>
       </c>
       <c r="D16" t="n">
-        <v>262.8817144469659</v>
+        <v>407.2263920375051</v>
       </c>
       <c r="E16" t="n">
-        <v>213.0542420504813</v>
+        <v>407.2263920375051</v>
       </c>
       <c r="F16" t="n">
-        <v>213.0542420504813</v>
+        <v>272.3921769827813</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504813</v>
+        <v>213.0542420504812</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5436,22 +5436,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V16" t="n">
-        <v>937.361648975152</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="W16" t="n">
-        <v>937.361648975152</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695202</v>
+        <v>901.3644369770135</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929697</v>
+        <v>706.4256492004631</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764623</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X17" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.6738210118496</v>
+        <v>435.1774047862766</v>
       </c>
       <c r="C19" t="n">
-        <v>355.3773594082509</v>
+        <v>435.1774047862766</v>
       </c>
       <c r="D19" t="n">
-        <v>355.3773594082509</v>
+        <v>305.4796709438715</v>
       </c>
       <c r="E19" t="n">
-        <v>355.3773594082509</v>
+        <v>305.4796709438715</v>
       </c>
       <c r="F19" t="n">
-        <v>220.543144353527</v>
+        <v>305.4796709438715</v>
       </c>
       <c r="G19" t="n">
-        <v>220.543144353527</v>
+        <v>213.0542420504812</v>
       </c>
       <c r="H19" t="n">
-        <v>100.7325999936685</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5700,25 +5700,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1646.522384595457</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1393.521147976266</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V19" t="n">
-        <v>1149.432313750473</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="W19" t="n">
-        <v>900.1595600940318</v>
+        <v>996.5659394278182</v>
       </c>
       <c r="X19" t="n">
-        <v>691.6126087884001</v>
+        <v>788.0189881221864</v>
       </c>
       <c r="Y19" t="n">
-        <v>496.6738210118496</v>
+        <v>593.0802003456361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1984.413938556069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.9414315330279</v>
+        <v>365.654063591217</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9414315330279</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5937,25 +5937,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1740.444618864608</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.692790675995</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1277.691554056804</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>1033.602719831011</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W22" t="n">
-        <v>784.3299661745697</v>
+        <v>769.1398026733991</v>
       </c>
       <c r="X22" t="n">
-        <v>575.7830148689379</v>
+        <v>560.5928513677674</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.8442270923875</v>
+        <v>365.654063591217</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6025,7 +6025,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.7891949029627</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C25" t="n">
-        <v>229.492733299364</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D25" t="n">
-        <v>229.492733299364</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E25" t="n">
-        <v>229.492733299364</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F25" t="n">
-        <v>229.492733299364</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G25" t="n">
-        <v>229.492733299364</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>1181.450483200945</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W25" t="n">
-        <v>932.1777295445045</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X25" t="n">
-        <v>723.6307782388727</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6919904623222</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4545.869976738793</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4545.869976738793</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.638793540887</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3970.63054741995</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3602.699555097702</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.885465809237</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1071.772388193679</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="C28" t="n">
-        <v>916.5083242979781</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="D28" t="n">
-        <v>772.8429881634711</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="E28" t="n">
-        <v>627.7614815743735</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F28" t="n">
-        <v>478.9596642275477</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G28" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.31362695014</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1677.31362695014</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.594196469425</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1186.625357558132</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.625357558132</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>1071.772388193679</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.772388193679</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>1071.772388193679</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>218.9746102962523</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C31" t="n">
-        <v>193.7604350437137</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D31" t="n">
-        <v>193.7604350437137</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="E31" t="n">
-        <v>193.7604350437137</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="F31" t="n">
-        <v>193.7604350437137</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="G31" t="n">
-        <v>193.7604350437137</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="H31" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1576.19457715465</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1352.475146673935</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U31" t="n">
-        <v>1085.506307762642</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V31" t="n">
-        <v>1085.506307762642</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W31" t="n">
-        <v>822.2659518140997</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X31" t="n">
-        <v>599.7513982163661</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.8450081477137</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
         <v>1228.182536368609</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1071.772388193679</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C34" t="n">
-        <v>916.5083242979781</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="D34" t="n">
-        <v>772.8429881634711</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="E34" t="n">
-        <v>627.7614815743735</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="F34" t="n">
-        <v>478.9596642275477</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5385816956741</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>193.7604350437137</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1677.31362695014</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.751167372633</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.751167372633</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U34" t="n">
-        <v>1501.699222563035</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V34" t="n">
-        <v>1243.64278604514</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W34" t="n">
-        <v>1243.64278604514</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X34" t="n">
-        <v>1243.64278604514</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y34" t="n">
-        <v>1243.64278604514</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4455.807709020582</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.638793540887</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.63054741995</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097702</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.885465809237</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>496.6738210118496</v>
       </c>
       <c r="C37" t="n">
-        <v>916.5083242979781</v>
+        <v>355.3773594082509</v>
       </c>
       <c r="D37" t="n">
-        <v>772.8429881634711</v>
+        <v>355.3773594082509</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743735</v>
+        <v>355.3773594082509</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275477</v>
+        <v>220.543144353527</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1547.647617173624</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.678778262331</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V37" t="n">
-        <v>1280.678778262331</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.678778262331</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.678778262331</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y37" t="n">
-        <v>1071.772388193679</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347452</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2302818437222</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>249.3313062791373</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1584.839892213121</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>671.0327509618885</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C40" t="n">
-        <v>515.7686870661879</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D40" t="n">
-        <v>372.1033509316808</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E40" t="n">
-        <v>227.0218443425832</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F40" t="n">
-        <v>227.0218443425832</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G40" t="n">
-        <v>227.0218443425832</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.757036732157</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1746.757036732157</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.564448428279</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.564448428279</v>
+        <v>1576.113509141316</v>
       </c>
       <c r="W40" t="n">
-        <v>1274.324092479736</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="X40" t="n">
-        <v>1051.809538882002</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.90314881335</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="41">
@@ -7496,22 +7496,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="X43" t="n">
-        <v>317.9793963018581</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>916.6240469015422</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.278667993779</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V46" t="n">
-        <v>835.3929229333004</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>296.1630732760186</v>
+        <v>348.6581490437659</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>520.2696096295571</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.7291972846581</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>314.7328902170143</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>67.6779873391382</v>
+        <v>480.2732273975239</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065776</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832877</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>91.92897171537967</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8464,16 +8464,16 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,22 +8537,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1981341283841</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8774,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>616.6125049502444</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>204.7378408708281</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9017,16 +9017,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>230.0378556308711</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>445.1055394667395</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9482,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>183.7223514567817</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>174.1409094511112</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10199,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10433,7 +10433,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,7 +10442,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>414.1811974913928</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E13" t="n">
-        <v>98.10450979991002</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>39.65764622743774</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E16" t="n">
-        <v>80.47356758150596</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>77.33438985439692</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>44.57777083291761</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.26963043036392</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S22" t="n">
-        <v>40.35761073228369</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>25.3193488661241</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>69.40953737398524</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.10549028226022</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554526</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729468</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6.369385590947928</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>146.9035127182486</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>207.4188940377128</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>128.7493897567304</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731619</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733575</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>15.42388141957407</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419723</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>207.418894037713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>23.13453657721458</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>259.2977251606783</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>89.16164504102983</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729468</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.05249324109889</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419722</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>24.36391081296003</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4188940377131</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419723</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>57.19848810134053</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>119.3177579897602</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>128.4376594995932</v>
       </c>
       <c r="X43" t="n">
-        <v>8.893130557884376</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>602084.4488698484</v>
+        <v>596348.9662840156</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610324.3185484656</v>
+        <v>610324.3185484657</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610324.3185484657</v>
+        <v>610324.3185484658</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610324.3185484658</v>
+        <v>610324.3185484657</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>589565.1121560689</v>
+        <v>610324.3185484657</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>589565.112156069</v>
+        <v>610324.3185484658</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>589565.1121560689</v>
+        <v>610324.3185484658</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>589565.1121560689</v>
+        <v>610324.3185484657</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>589565.112156069</v>
+        <v>610324.3185484657</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566038.963844256</v>
+        <v>566038.9638442559</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>586376.614916845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>586376.6149168449</v>
+      </c>
+      <c r="D2" t="n">
         <v>586376.6149168452</v>
       </c>
-      <c r="C2" t="n">
-        <v>586376.6149168451</v>
-      </c>
-      <c r="D2" t="n">
-        <v>586376.6149168451</v>
-      </c>
       <c r="E2" t="n">
-        <v>568257.9771323317</v>
+        <v>568257.9771323322</v>
       </c>
       <c r="F2" t="n">
-        <v>568257.977132332</v>
+        <v>568257.9771323323</v>
       </c>
       <c r="G2" t="n">
-        <v>568257.9771323318</v>
+        <v>568257.9771323324</v>
       </c>
       <c r="H2" t="n">
-        <v>568257.9771323318</v>
+        <v>568257.9771323324</v>
       </c>
       <c r="I2" t="n">
         <v>568257.9771323318</v>
       </c>
       <c r="J2" t="n">
-        <v>546277.6409521484</v>
+        <v>568257.9771323322</v>
       </c>
       <c r="K2" t="n">
-        <v>546277.6409521485</v>
+        <v>568257.9771323322</v>
       </c>
       <c r="L2" t="n">
-        <v>546277.6409521484</v>
+        <v>568257.977132332</v>
       </c>
       <c r="M2" t="n">
-        <v>546277.6409521482</v>
+        <v>568257.9771323319</v>
       </c>
       <c r="N2" t="n">
-        <v>546277.6409521475</v>
+        <v>568257.977132332</v>
       </c>
       <c r="O2" t="n">
         <v>521367.601563169</v>
       </c>
       <c r="P2" t="n">
-        <v>521367.6015631691</v>
+        <v>521367.601563169</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108467</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110946</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203402.6837676921</v>
+        <v>223266.2113308336</v>
       </c>
       <c r="C4" t="n">
         <v>203402.6837676921</v>
@@ -26426,34 +26426,34 @@
         <v>203402.6837676921</v>
       </c>
       <c r="E4" t="n">
+        <v>104184.3863816103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>104184.3863816103</v>
+      </c>
+      <c r="G4" t="n">
+        <v>104184.3863816103</v>
+      </c>
+      <c r="H4" t="n">
+        <v>104184.3863816103</v>
+      </c>
+      <c r="I4" t="n">
+        <v>104184.3863816103</v>
+      </c>
+      <c r="J4" t="n">
         <v>104184.3863816102</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>104184.3863816102</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>104184.3863816102</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>104184.3863816102</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>104184.3863816102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>90210.63462188064</v>
-      </c>
-      <c r="K4" t="n">
-        <v>90210.63462188063</v>
-      </c>
-      <c r="L4" t="n">
-        <v>90210.63462188066</v>
-      </c>
-      <c r="M4" t="n">
-        <v>90210.63462188063</v>
-      </c>
-      <c r="N4" t="n">
-        <v>90210.63462188063</v>
       </c>
       <c r="O4" t="n">
         <v>74374.35696474131</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742945</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,34 +26478,34 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="F5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="J5" t="n">
         <v>73345.15677686482</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>73345.15677686482</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>73345.15677686482</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>73345.15677686482</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>73345.15677686482</v>
-      </c>
-      <c r="J5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="K5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72182.65684334106</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142649.3561775415</v>
+        <v>160392.0744677353</v>
       </c>
       <c r="C6" t="n">
-        <v>317604.8660706555</v>
+        <v>286918.4052039672</v>
       </c>
       <c r="D6" t="n">
-        <v>317604.8660706555</v>
+        <v>317604.8660706556</v>
       </c>
       <c r="E6" t="n">
-        <v>174999.5176933431</v>
+        <v>174949.188143942</v>
       </c>
       <c r="F6" t="n">
-        <v>390728.433973857</v>
+        <v>390678.1044244557</v>
       </c>
       <c r="G6" t="n">
-        <v>390728.4339738567</v>
+        <v>390678.1044244558</v>
       </c>
       <c r="H6" t="n">
-        <v>390728.4339738567</v>
+        <v>390678.1044244558</v>
       </c>
       <c r="I6" t="n">
-        <v>390728.4339738567</v>
+        <v>390678.1044244553</v>
       </c>
       <c r="J6" t="n">
-        <v>234752.736315306</v>
+        <v>255336.0749553018</v>
       </c>
       <c r="K6" t="n">
-        <v>383884.3494869268</v>
+        <v>366232.3301633463</v>
       </c>
       <c r="L6" t="n">
-        <v>383884.3494869266</v>
+        <v>390678.1044244556</v>
       </c>
       <c r="M6" t="n">
-        <v>223525.8989862439</v>
+        <v>230319.6539237727</v>
       </c>
       <c r="N6" t="n">
-        <v>383884.3494869259</v>
+        <v>390678.1044244556</v>
       </c>
       <c r="O6" t="n">
-        <v>376128.0343535544</v>
+        <v>375947.4537609052</v>
       </c>
       <c r="P6" t="n">
-        <v>376128.0343535545</v>
+        <v>375947.4537609053</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I2" t="n">
+        <v>29.49894172633806</v>
+      </c>
+      <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
-      <c r="J2" t="n">
-        <v>15.67101545715712</v>
-      </c>
       <c r="K2" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.19522188379983</v>
+        <v>4.548897447918705</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27432,13 +27432,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.24154521142077</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>90.17736389674155</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.31312169923854</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>103.6834669398975</v>
+        <v>383.8580275794145</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>134.9699070214187</v>
+        <v>182.4015834929584</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.48287933845643</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>18.19522188379989</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.0768212501789</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28067,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715712</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715711</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2507825193993</v>
+        <v>255.7458582871465</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>258.9071074323989</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538821</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>441.8756042977813</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.55973291537967</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,16 +35184,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>338.0047407346341</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35494,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>560.4979811393954</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>390.8459044639358</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L16" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L19" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>127.029732951943</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615765</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028521</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615765</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028521</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615765</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028521</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060241</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615765</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028521</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060241</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615764</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
